--- a/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/6.xlsx
+++ b/estimation/VAEwithDG/DG_DenseRegressor_1st_torch/vaelstm_3rd_torch/IWALQQ_AE_1st/moBWHT/70/4_fold/6.xlsx
@@ -479,13 +479,13 @@
         <v>-0.05892087670311518</v>
       </c>
       <c r="E2" t="n">
-        <v>-2.522251101685853</v>
+        <v>-2.540547694337076</v>
       </c>
       <c r="F2" t="n">
-        <v>-0.07639752042078279</v>
+        <v>-0.08288597413678106</v>
       </c>
       <c r="G2" t="n">
-        <v>0.2047668605416872</v>
+        <v>0.2119999387840489</v>
       </c>
     </row>
     <row r="3">
@@ -502,13 +502,13 @@
         <v>-0.06243946215214333</v>
       </c>
       <c r="E3" t="n">
-        <v>-2.726392835684571</v>
+        <v>-2.749231637946611</v>
       </c>
       <c r="F3" t="n">
-        <v>-0.1246842308833153</v>
+        <v>-0.1296425542000412</v>
       </c>
       <c r="G3" t="n">
-        <v>0.2584951702390363</v>
+        <v>0.2657530692989435</v>
       </c>
     </row>
     <row r="4">
@@ -525,13 +525,13 @@
         <v>-0.06666711114063605</v>
       </c>
       <c r="E4" t="n">
-        <v>-3.021789035413174</v>
+        <v>-3.04554693794844</v>
       </c>
       <c r="F4" t="n">
-        <v>-0.2262276555098335</v>
+        <v>-0.2389505145740119</v>
       </c>
       <c r="G4" t="n">
-        <v>0.2711596273795784</v>
+        <v>0.2782014393220311</v>
       </c>
     </row>
     <row r="5">
@@ -548,13 +548,13 @@
         <v>-0.07066930414246929</v>
       </c>
       <c r="E5" t="n">
-        <v>-3.241059057705842</v>
+        <v>-3.270004511108107</v>
       </c>
       <c r="F5" t="n">
-        <v>-0.313820320627719</v>
+        <v>-0.326870230464261</v>
       </c>
       <c r="G5" t="n">
-        <v>0.2839204476941204</v>
+        <v>0.2947875856347539</v>
       </c>
     </row>
     <row r="6">
@@ -571,13 +571,13 @@
         <v>-0.07204310585263481</v>
       </c>
       <c r="E6" t="n">
-        <v>-3.291511019487192</v>
+        <v>-3.317800645412094</v>
       </c>
       <c r="F6" t="n">
-        <v>-0.3678158191257045</v>
+        <v>-0.3778843107606109</v>
       </c>
       <c r="G6" t="n">
-        <v>0.3150647335212939</v>
+        <v>0.3254135543896547</v>
       </c>
     </row>
     <row r="7">
@@ -594,13 +594,13 @@
         <v>-0.06700752663405013</v>
       </c>
       <c r="E7" t="n">
-        <v>-3.072549067341706</v>
+        <v>-3.104540181061606</v>
       </c>
       <c r="F7" t="n">
-        <v>-0.4326244337849598</v>
+        <v>-0.4501289503468643</v>
       </c>
       <c r="G7" t="n">
-        <v>0.3143580702452941</v>
+        <v>0.3248616562112913</v>
       </c>
     </row>
     <row r="8">
@@ -617,13 +617,13 @@
         <v>-0.05328531641536487</v>
       </c>
       <c r="E8" t="n">
-        <v>-2.715549788537438</v>
+        <v>-2.749417064054156</v>
       </c>
       <c r="F8" t="n">
-        <v>-0.540294220200931</v>
+        <v>-0.5536229992228364</v>
       </c>
       <c r="G8" t="n">
-        <v>0.2952051593887538</v>
+        <v>0.302254271571661</v>
       </c>
     </row>
     <row r="9">
@@ -640,13 +640,13 @@
         <v>-0.03288136898041857</v>
       </c>
       <c r="E9" t="n">
-        <v>-2.287115466813325</v>
+        <v>-2.32228583525118</v>
       </c>
       <c r="F9" t="n">
-        <v>-0.542068178631385</v>
+        <v>-0.5526944086370186</v>
       </c>
       <c r="G9" t="n">
-        <v>0.293891116106936</v>
+        <v>0.2968345730582079</v>
       </c>
     </row>
     <row r="10">
@@ -663,13 +663,13 @@
         <v>-0.008573085123343323</v>
       </c>
       <c r="E10" t="n">
-        <v>-1.908662971385291</v>
+        <v>-1.937370436948738</v>
       </c>
       <c r="F10" t="n">
-        <v>-0.6199442237042732</v>
+        <v>-0.6361040359744506</v>
       </c>
       <c r="G10" t="n">
-        <v>0.3082725898023866</v>
+        <v>0.3116584413252039</v>
       </c>
     </row>
     <row r="11">
@@ -686,13 +686,13 @@
         <v>0.01857614487522848</v>
       </c>
       <c r="E11" t="n">
-        <v>-1.402045264465154</v>
+        <v>-1.426566772151966</v>
       </c>
       <c r="F11" t="n">
-        <v>-0.7583188214720542</v>
+        <v>-0.7758306382744131</v>
       </c>
       <c r="G11" t="n">
-        <v>0.3187995365378384</v>
+        <v>0.3219298796447466</v>
       </c>
     </row>
     <row r="12">
@@ -709,13 +709,13 @@
         <v>0.05103895789561228</v>
       </c>
       <c r="E12" t="n">
-        <v>-0.8559055157722099</v>
+        <v>-0.8919584832810183</v>
       </c>
       <c r="F12" t="n">
-        <v>-0.9207900529321924</v>
+        <v>-0.9347919141240069</v>
       </c>
       <c r="G12" t="n">
-        <v>0.3656407993903713</v>
+        <v>0.3653619302050077</v>
       </c>
     </row>
     <row r="13">
@@ -732,13 +732,13 @@
         <v>0.09233661464023055</v>
       </c>
       <c r="E13" t="n">
-        <v>-0.3544549190457991</v>
+        <v>-0.3983921462455145</v>
       </c>
       <c r="F13" t="n">
-        <v>-1.229435459061746</v>
+        <v>-1.252352373896649</v>
       </c>
       <c r="G13" t="n">
-        <v>0.3970347534410901</v>
+        <v>0.398267034029817</v>
       </c>
     </row>
     <row r="14">
@@ -755,13 +755,13 @@
         <v>0.1460084358977936</v>
       </c>
       <c r="E14" t="n">
-        <v>0.2474469863351302</v>
+        <v>0.2067452257048684</v>
       </c>
       <c r="F14" t="n">
-        <v>-1.662320737390993</v>
+        <v>-1.682821272635442</v>
       </c>
       <c r="G14" t="n">
-        <v>0.4967808588676997</v>
+        <v>0.4962625417954271</v>
       </c>
     </row>
     <row r="15">
@@ -778,13 +778,13 @@
         <v>0.2130558336072492</v>
       </c>
       <c r="E15" t="n">
-        <v>0.8660766626936005</v>
+        <v>0.824427330852339</v>
       </c>
       <c r="F15" t="n">
-        <v>-2.063709128279113</v>
+        <v>-2.083919843977517</v>
       </c>
       <c r="G15" t="n">
-        <v>0.5780704963771324</v>
+        <v>0.5729924491169519</v>
       </c>
     </row>
     <row r="16">
@@ -801,13 +801,13 @@
         <v>0.289442653458756</v>
       </c>
       <c r="E16" t="n">
-        <v>1.35046075728538</v>
+        <v>1.303543571932119</v>
       </c>
       <c r="F16" t="n">
-        <v>-2.456912489569598</v>
+        <v>-2.48037400234241</v>
       </c>
       <c r="G16" t="n">
-        <v>0.696511057559737</v>
+        <v>0.6875916237723757</v>
       </c>
     </row>
     <row r="17">
@@ -824,13 +824,13 @@
         <v>0.3734801648362625</v>
       </c>
       <c r="E17" t="n">
-        <v>1.895762438374142</v>
+        <v>1.855760040779426</v>
       </c>
       <c r="F17" t="n">
-        <v>-2.814423515229729</v>
+        <v>-2.837002428931587</v>
       </c>
       <c r="G17" t="n">
-        <v>0.8102123026392518</v>
+        <v>0.8047940641738897</v>
       </c>
     </row>
     <row r="18">
@@ -847,13 +847,13 @@
         <v>0.4652146437527886</v>
       </c>
       <c r="E18" t="n">
-        <v>2.304600724646123</v>
+        <v>2.269292381663678</v>
       </c>
       <c r="F18" t="n">
-        <v>-3.151231788984821</v>
+        <v>-3.169099857521362</v>
       </c>
       <c r="G18" t="n">
-        <v>0.9420196040941256</v>
+        <v>0.9328140008809462</v>
       </c>
     </row>
     <row r="19">
@@ -870,13 +870,13 @@
         <v>0.5661811924759699</v>
       </c>
       <c r="E19" t="n">
-        <v>2.752966892883276</v>
+        <v>2.720731951132193</v>
       </c>
       <c r="F19" t="n">
-        <v>-3.422056839391521</v>
+        <v>-3.439144512223471</v>
       </c>
       <c r="G19" t="n">
-        <v>1.115981414029715</v>
+        <v>1.106292534898445</v>
       </c>
     </row>
     <row r="20">
@@ -893,13 +893,13 @@
         <v>0.6736179450544736</v>
       </c>
       <c r="E20" t="n">
-        <v>3.066569162281464</v>
+        <v>3.043885855141107</v>
       </c>
       <c r="F20" t="n">
-        <v>-3.690753869705721</v>
+        <v>-3.706957483418626</v>
       </c>
       <c r="G20" t="n">
-        <v>1.255391185893951</v>
+        <v>1.243290307316499</v>
       </c>
     </row>
     <row r="21">
@@ -916,13 +916,13 @@
         <v>0.7814885885640493</v>
       </c>
       <c r="E21" t="n">
-        <v>3.403838811233283</v>
+        <v>3.378321550748471</v>
       </c>
       <c r="F21" t="n">
-        <v>-3.913477635757434</v>
+        <v>-3.931787368841475</v>
       </c>
       <c r="G21" t="n">
-        <v>1.374558851025828</v>
+        <v>1.363446425005922</v>
       </c>
     </row>
     <row r="22">
@@ -939,13 +939,13 @@
         <v>0.882432410442072</v>
       </c>
       <c r="E22" t="n">
-        <v>3.720955416386289</v>
+        <v>3.698534917902295</v>
       </c>
       <c r="F22" t="n">
-        <v>-4.078147699642481</v>
+        <v>-4.097042912010976</v>
       </c>
       <c r="G22" t="n">
-        <v>1.441521036619173</v>
+        <v>1.426787691333814</v>
       </c>
     </row>
     <row r="23">
@@ -962,13 +962,13 @@
         <v>0.9682819832873817</v>
       </c>
       <c r="E23" t="n">
-        <v>3.924843832041234</v>
+        <v>3.90849713361542</v>
       </c>
       <c r="F23" t="n">
-        <v>-4.186443116665407</v>
+        <v>-4.198978359549903</v>
       </c>
       <c r="G23" t="n">
-        <v>1.527272581094423</v>
+        <v>1.517586622059335</v>
       </c>
     </row>
     <row r="24">
@@ -985,13 +985,13 @@
         <v>1.033283308382204</v>
       </c>
       <c r="E24" t="n">
-        <v>4.084764359486554</v>
+        <v>4.063935313421651</v>
       </c>
       <c r="F24" t="n">
-        <v>-4.246729232363072</v>
+        <v>-4.251838670657207</v>
       </c>
       <c r="G24" t="n">
-        <v>1.577612119172773</v>
+        <v>1.56690704657023</v>
       </c>
     </row>
     <row r="25">
@@ -1008,13 +1008,13 @@
         <v>1.074519269331629</v>
       </c>
       <c r="E25" t="n">
-        <v>4.184947019292346</v>
+        <v>4.167479003932714</v>
       </c>
       <c r="F25" t="n">
-        <v>-4.275352745161292</v>
+        <v>-4.274952691984383</v>
       </c>
       <c r="G25" t="n">
-        <v>1.592133757484951</v>
+        <v>1.58098191016659</v>
       </c>
     </row>
     <row r="26">
@@ -1031,13 +1031,13 @@
         <v>1.093324921586344</v>
       </c>
       <c r="E26" t="n">
-        <v>4.213432557545975</v>
+        <v>4.19657192219216</v>
       </c>
       <c r="F26" t="n">
-        <v>-4.183733997432725</v>
+        <v>-4.178077041104499</v>
       </c>
       <c r="G26" t="n">
-        <v>1.5440266329376</v>
+        <v>1.527465307442423</v>
       </c>
     </row>
     <row r="27">
@@ -1054,13 +1054,13 @@
         <v>1.091937884639099</v>
       </c>
       <c r="E27" t="n">
-        <v>4.169536211692805</v>
+        <v>4.14706753162181</v>
       </c>
       <c r="F27" t="n">
-        <v>-4.111069594020336</v>
+        <v>-4.102273534296656</v>
       </c>
       <c r="G27" t="n">
-        <v>1.518814522503789</v>
+        <v>1.50607414286252</v>
       </c>
     </row>
     <row r="28">
@@ -1077,13 +1077,13 @@
         <v>1.074092550082308</v>
       </c>
       <c r="E28" t="n">
-        <v>4.122556244271635</v>
+        <v>4.102444081819367</v>
       </c>
       <c r="F28" t="n">
-        <v>-3.941278411456427</v>
+        <v>-3.933050310440111</v>
       </c>
       <c r="G28" t="n">
-        <v>1.426191991712723</v>
+        <v>1.406925197105092</v>
       </c>
     </row>
     <row r="29">
@@ -1100,13 +1100,13 @@
         <v>1.04232677458562</v>
       </c>
       <c r="E29" t="n">
-        <v>3.967583819806404</v>
+        <v>3.944662524827228</v>
       </c>
       <c r="F29" t="n">
-        <v>-3.770490016046427</v>
+        <v>-3.762624736980702</v>
       </c>
       <c r="G29" t="n">
-        <v>1.321905136723387</v>
+        <v>1.305513176806755</v>
       </c>
     </row>
     <row r="30">
@@ -1123,13 +1123,13 @@
         <v>0.9999561414296118</v>
       </c>
       <c r="E30" t="n">
-        <v>3.866241881816431</v>
+        <v>3.84041947128062</v>
       </c>
       <c r="F30" t="n">
-        <v>-3.605943326225062</v>
+        <v>-3.600734604660746</v>
       </c>
       <c r="G30" t="n">
-        <v>1.230189295796775</v>
+        <v>1.212211723653417</v>
       </c>
     </row>
     <row r="31">
@@ -1146,13 +1146,13 @@
         <v>0.9503061406987314</v>
       </c>
       <c r="E31" t="n">
-        <v>3.710832902972018</v>
+        <v>3.689663665701933</v>
       </c>
       <c r="F31" t="n">
-        <v>-3.45543572882183</v>
+        <v>-3.445083257833242</v>
       </c>
       <c r="G31" t="n">
-        <v>1.131111892395802</v>
+        <v>1.111417303697535</v>
       </c>
     </row>
     <row r="32">
@@ -1169,13 +1169,13 @@
         <v>0.8955453602446263</v>
       </c>
       <c r="E32" t="n">
-        <v>3.551943169478879</v>
+        <v>3.534908788402248</v>
       </c>
       <c r="F32" t="n">
-        <v>-3.260671883711018</v>
+        <v>-3.242484064642569</v>
       </c>
       <c r="G32" t="n">
-        <v>1.014803001425924</v>
+        <v>0.9939184735335662</v>
       </c>
     </row>
     <row r="33">
@@ -1192,13 +1192,13 @@
         <v>0.8373299144183708</v>
       </c>
       <c r="E33" t="n">
-        <v>3.371821416647746</v>
+        <v>3.352722527570569</v>
       </c>
       <c r="F33" t="n">
-        <v>-3.11667756084133</v>
+        <v>-3.0949053237097</v>
       </c>
       <c r="G33" t="n">
-        <v>0.9627449867445745</v>
+        <v>0.9457748477839427</v>
       </c>
     </row>
     <row r="34">
@@ -1215,13 +1215,13 @@
         <v>0.7755489799280649</v>
       </c>
       <c r="E34" t="n">
-        <v>3.181320181938343</v>
+        <v>3.16873456739471</v>
       </c>
       <c r="F34" t="n">
-        <v>-3.102955298858925</v>
+        <v>-3.086042831797884</v>
       </c>
       <c r="G34" t="n">
-        <v>0.8672169602526002</v>
+        <v>0.8514192399089681</v>
       </c>
     </row>
     <row r="35">
@@ -1238,13 +1238,13 @@
         <v>0.7114975938631016</v>
       </c>
       <c r="E35" t="n">
-        <v>2.886219641948149</v>
+        <v>2.882598722682695</v>
       </c>
       <c r="F35" t="n">
-        <v>-2.985014804147456</v>
+        <v>-2.970617269923006</v>
       </c>
       <c r="G35" t="n">
-        <v>0.8197142956148856</v>
+        <v>0.8024711276612539</v>
       </c>
     </row>
     <row r="36">
@@ -1261,13 +1261,13 @@
         <v>0.6456493628569475</v>
       </c>
       <c r="E36" t="n">
-        <v>2.595851117820591</v>
+        <v>2.590707368396319</v>
       </c>
       <c r="F36" t="n">
-        <v>-2.928433560480471</v>
+        <v>-2.911782442027703</v>
       </c>
       <c r="G36" t="n">
-        <v>0.7555335016347211</v>
+        <v>0.7409125800523614</v>
       </c>
     </row>
     <row r="37">
@@ -1284,13 +1284,13 @@
         <v>0.5809113981273871</v>
       </c>
       <c r="E37" t="n">
-        <v>2.331561972692843</v>
+        <v>2.324220850891754</v>
       </c>
       <c r="F37" t="n">
-        <v>-2.863808911880671</v>
+        <v>-2.849384366766538</v>
       </c>
       <c r="G37" t="n">
-        <v>0.7098442167259151</v>
+        <v>0.700188918700736</v>
       </c>
     </row>
     <row r="38">
@@ -1307,13 +1307,13 @@
         <v>0.5186458101986133</v>
       </c>
       <c r="E38" t="n">
-        <v>2.022252244681926</v>
+        <v>2.013521157098292</v>
       </c>
       <c r="F38" t="n">
-        <v>-2.788892384288054</v>
+        <v>-2.775438771154376</v>
       </c>
       <c r="G38" t="n">
-        <v>0.6333479170989357</v>
+        <v>0.6239773284514837</v>
       </c>
     </row>
     <row r="39">
@@ -1330,13 +1330,13 @@
         <v>0.4595766942669907</v>
       </c>
       <c r="E39" t="n">
-        <v>1.735998136074549</v>
+        <v>1.731705594687277</v>
       </c>
       <c r="F39" t="n">
-        <v>-2.663627558328542</v>
+        <v>-2.645663856642047</v>
       </c>
       <c r="G39" t="n">
-        <v>0.6104178618312146</v>
+        <v>0.6017072149208533</v>
       </c>
     </row>
     <row r="40">
@@ -1353,13 +1353,13 @@
         <v>0.4036580154308367</v>
       </c>
       <c r="E40" t="n">
-        <v>1.500774168292521</v>
+        <v>1.503786247504066</v>
       </c>
       <c r="F40" t="n">
-        <v>-2.545925051455892</v>
+        <v>-2.52811027467467</v>
       </c>
       <c r="G40" t="n">
-        <v>0.5366328715090526</v>
+        <v>0.5284624423923275</v>
       </c>
     </row>
     <row r="41">
@@ -1376,13 +1376,13 @@
         <v>0.3501748392212262</v>
       </c>
       <c r="E41" t="n">
-        <v>1.252774779715042</v>
+        <v>1.249864903869861</v>
       </c>
       <c r="F41" t="n">
-        <v>-2.431523713316787</v>
+        <v>-2.413946194350337</v>
       </c>
       <c r="G41" t="n">
-        <v>0.4746669704827965</v>
+        <v>0.4657884180419807</v>
       </c>
     </row>
     <row r="42">
@@ -1399,13 +1399,13 @@
         <v>0.2988296025017834</v>
       </c>
       <c r="E42" t="n">
-        <v>1.039555196711099</v>
+        <v>1.036981131926827</v>
       </c>
       <c r="F42" t="n">
-        <v>-2.312024617268273</v>
+        <v>-2.292224175083415</v>
       </c>
       <c r="G42" t="n">
-        <v>0.406806855313542</v>
+        <v>0.4023653890209977</v>
       </c>
     </row>
     <row r="43">
@@ -1422,13 +1422,13 @@
         <v>0.2485068430635269</v>
       </c>
       <c r="E43" t="n">
-        <v>0.8360639141368813</v>
+        <v>0.8360624540887903</v>
       </c>
       <c r="F43" t="n">
-        <v>-2.208634231806756</v>
+        <v>-2.19348915295976</v>
       </c>
       <c r="G43" t="n">
-        <v>0.3525500082072838</v>
+        <v>0.3488239654792848</v>
       </c>
     </row>
     <row r="44">
@@ -1445,13 +1445,13 @@
         <v>0.1986668578985477</v>
       </c>
       <c r="E44" t="n">
-        <v>0.6742949658084701</v>
+        <v>0.6749359269203791</v>
       </c>
       <c r="F44" t="n">
-        <v>-2.146223746136818</v>
+        <v>-2.128585635174595</v>
       </c>
       <c r="G44" t="n">
-        <v>0.262162811043399</v>
+        <v>0.2561328124279461</v>
       </c>
     </row>
     <row r="45">
@@ -1468,13 +1468,13 @@
         <v>0.1479898581586589</v>
       </c>
       <c r="E45" t="n">
-        <v>0.4959398711673362</v>
+        <v>0.4956624620300636</v>
       </c>
       <c r="F45" t="n">
-        <v>-2.038886850685574</v>
+        <v>-2.01962370619817</v>
       </c>
       <c r="G45" t="n">
-        <v>0.2318346920990435</v>
+        <v>0.2236131612991366</v>
       </c>
     </row>
     <row r="46">
@@ -1491,13 +1491,13 @@
         <v>0.09630762239794419</v>
       </c>
       <c r="E46" t="n">
-        <v>0.3254558957842911</v>
+        <v>0.3240717701941097</v>
       </c>
       <c r="F46" t="n">
-        <v>-1.966758284922548</v>
+        <v>-1.947051285815508</v>
       </c>
       <c r="G46" t="n">
-        <v>0.2055377659336869</v>
+        <v>0.1952780079988715</v>
       </c>
     </row>
     <row r="47">
@@ -1514,13 +1514,13 @@
         <v>0.0432737961651365</v>
       </c>
       <c r="E47" t="n">
-        <v>0.1514765652716105</v>
+        <v>0.1520109428728831</v>
       </c>
       <c r="F47" t="n">
-        <v>-1.905770616117201</v>
+        <v>-1.883278575276752</v>
       </c>
       <c r="G47" t="n">
-        <v>0.1373958614828871</v>
+        <v>0.1293101151554347</v>
       </c>
     </row>
     <row r="48">
@@ -1537,13 +1537,13 @@
         <v>-0.01061310541103995</v>
       </c>
       <c r="E48" t="n">
-        <v>0.02868068063382535</v>
+        <v>0.03297614211727874</v>
       </c>
       <c r="F48" t="n">
-        <v>-1.856501293289487</v>
+        <v>-1.83613362242131</v>
       </c>
       <c r="G48" t="n">
-        <v>0.1240203609220725</v>
+        <v>0.1156469851207111</v>
       </c>
     </row>
     <row r="49">
@@ -1560,13 +1560,13 @@
         <v>-0.06477706539446566</v>
       </c>
       <c r="E49" t="n">
-        <v>-0.105418896323775</v>
+        <v>-0.1018928801842305</v>
       </c>
       <c r="F49" t="n">
-        <v>-1.781946857623416</v>
+        <v>-1.757407829359513</v>
       </c>
       <c r="G49" t="n">
-        <v>0.07196526633690463</v>
+        <v>0.06304583254954339</v>
       </c>
     </row>
     <row r="50">
@@ -1583,13 +1583,13 @@
         <v>-0.1179725470226767</v>
       </c>
       <c r="E50" t="n">
-        <v>-0.2091859741927471</v>
+        <v>-0.2045474014079302</v>
       </c>
       <c r="F50" t="n">
-        <v>-1.760216961886422</v>
+        <v>-1.734064580482065</v>
       </c>
       <c r="G50" t="n">
-        <v>0.03574001315336891</v>
+        <v>0.02425965501455381</v>
       </c>
     </row>
     <row r="51">
@@ -1606,13 +1606,13 @@
         <v>-0.1690294805738816</v>
       </c>
       <c r="E51" t="n">
-        <v>-0.3207978904541717</v>
+        <v>-0.3120332217644468</v>
       </c>
       <c r="F51" t="n">
-        <v>-1.706874104885072</v>
+        <v>-1.678974045915898</v>
       </c>
       <c r="G51" t="n">
-        <v>0.03274837461509698</v>
+        <v>0.01905312352237339</v>
       </c>
     </row>
     <row r="52">
@@ -1629,13 +1629,13 @@
         <v>-0.2169170204219347</v>
       </c>
       <c r="E52" t="n">
-        <v>-0.3760694709836114</v>
+        <v>-0.3693488696211587</v>
       </c>
       <c r="F52" t="n">
-        <v>-1.702092447387346</v>
+        <v>-1.673690131874899</v>
       </c>
       <c r="G52" t="n">
-        <v>-0.03027752132515882</v>
+        <v>-0.04051975868288334</v>
       </c>
     </row>
     <row r="53">
@@ -1652,13 +1652,13 @@
         <v>-0.26026616708165</v>
       </c>
       <c r="E53" t="n">
-        <v>-0.4776639972933114</v>
+        <v>-0.4760915254994028</v>
       </c>
       <c r="F53" t="n">
-        <v>-1.695684296316348</v>
+        <v>-1.66584967362672</v>
       </c>
       <c r="G53" t="n">
-        <v>-0.03242087192261279</v>
+        <v>-0.04180168090670118</v>
       </c>
     </row>
     <row r="54">
@@ -1675,13 +1675,13 @@
         <v>-0.298513962986771</v>
       </c>
       <c r="E54" t="n">
-        <v>-0.514755058994756</v>
+        <v>-0.5199864113044819</v>
       </c>
       <c r="F54" t="n">
-        <v>-1.682905955424715</v>
+        <v>-1.654652564817541</v>
       </c>
       <c r="G54" t="n">
-        <v>-0.06793362163778507</v>
+        <v>-0.07723412797687348</v>
       </c>
     </row>
     <row r="55">
@@ -1698,13 +1698,13 @@
         <v>-0.3312640656340709</v>
       </c>
       <c r="E55" t="n">
-        <v>-0.6390270522524499</v>
+        <v>-0.6447007991337211</v>
       </c>
       <c r="F55" t="n">
-        <v>-1.664526870056356</v>
+        <v>-1.640387894969363</v>
       </c>
       <c r="G55" t="n">
-        <v>-0.09145207628614239</v>
+        <v>-0.09871727558650407</v>
       </c>
     </row>
     <row r="56">
@@ -1721,13 +1721,13 @@
         <v>-0.3594326927465814</v>
       </c>
       <c r="E56" t="n">
-        <v>-0.7219023019886095</v>
+        <v>-0.7257728894776084</v>
       </c>
       <c r="F56" t="n">
-        <v>-1.62908712274573</v>
+        <v>-1.606562960847281</v>
       </c>
       <c r="G56" t="n">
-        <v>-0.1124475678334095</v>
+        <v>-0.1226635243254977</v>
       </c>
     </row>
     <row r="57">
@@ -1744,13 +1744,13 @@
         <v>-0.3833885568734856</v>
       </c>
       <c r="E57" t="n">
-        <v>-0.8511793401019384</v>
+        <v>-0.8586737669525727</v>
       </c>
       <c r="F57" t="n">
-        <v>-1.667867460088355</v>
+        <v>-1.643557659374726</v>
       </c>
       <c r="G57" t="n">
-        <v>-0.112838860721773</v>
+        <v>-0.124433102611679</v>
       </c>
     </row>
     <row r="58">
@@ -1767,13 +1767,13 @@
         <v>-0.4041814375942044</v>
       </c>
       <c r="E58" t="n">
-        <v>-0.9231655511761009</v>
+        <v>-0.92988031234619</v>
       </c>
       <c r="F58" t="n">
-        <v>-1.641110618774363</v>
+        <v>-1.621105039832732</v>
       </c>
       <c r="G58" t="n">
-        <v>-0.1543334274653982</v>
+        <v>-0.1624629752355779</v>
       </c>
     </row>
     <row r="59">
@@ -1790,13 +1790,13 @@
         <v>-0.4225077962596471</v>
       </c>
       <c r="E59" t="n">
-        <v>-1.040061381478524</v>
+        <v>-1.044713094696159</v>
       </c>
       <c r="F59" t="n">
-        <v>-1.651936875368451</v>
+        <v>-1.630890282138002</v>
       </c>
       <c r="G59" t="n">
-        <v>-0.1771963205209376</v>
+        <v>-0.1878882526906619</v>
       </c>
     </row>
     <row r="60">
@@ -1813,13 +1813,13 @@
         <v>-0.4390659893182159</v>
       </c>
       <c r="E60" t="n">
-        <v>-1.079443258634604</v>
+        <v>-1.086813581397511</v>
       </c>
       <c r="F60" t="n">
-        <v>-1.649648980009997</v>
+        <v>-1.626133445457821</v>
       </c>
       <c r="G60" t="n">
-        <v>-0.1895235065524797</v>
+        <v>-0.1998854678536587</v>
       </c>
     </row>
     <row r="61">
@@ -1836,13 +1836,13 @@
         <v>-0.4546175308946371</v>
       </c>
       <c r="E61" t="n">
-        <v>-1.162692280682037</v>
+        <v>-1.170909431337671</v>
       </c>
       <c r="F61" t="n">
-        <v>-1.694609700921439</v>
+        <v>-1.674878611020899</v>
       </c>
       <c r="G61" t="n">
-        <v>-0.2486364736091002</v>
+        <v>-0.2609607395444605</v>
       </c>
     </row>
     <row r="62">
@@ -1859,13 +1859,13 @@
         <v>-0.4692425126410273</v>
       </c>
       <c r="E62" t="n">
-        <v>-1.215687646237749</v>
+        <v>-1.221811087931021</v>
       </c>
       <c r="F62" t="n">
-        <v>-1.698305082639529</v>
+        <v>-1.678360825717716</v>
       </c>
       <c r="G62" t="n">
-        <v>-0.2948265550130878</v>
+        <v>-0.304226344622358</v>
       </c>
     </row>
     <row r="63">
@@ -1882,13 +1882,13 @@
         <v>-0.4831837083729841</v>
       </c>
       <c r="E63" t="n">
-        <v>-1.284490952473731</v>
+        <v>-1.283118507268277</v>
       </c>
       <c r="F63" t="n">
-        <v>-1.745477776408698</v>
+        <v>-1.726329245696431</v>
       </c>
       <c r="G63" t="n">
-        <v>-0.3132786427859919</v>
+        <v>-0.322936860907353</v>
       </c>
     </row>
     <row r="64">
@@ -1905,13 +1905,13 @@
         <v>-0.4961522005975068</v>
       </c>
       <c r="E64" t="n">
-        <v>-1.353462164240167</v>
+        <v>-1.348351995921987</v>
       </c>
       <c r="F64" t="n">
-        <v>-1.777444069311053</v>
+        <v>-1.755338941214696</v>
       </c>
       <c r="G64" t="n">
-        <v>-0.3600323027530703</v>
+        <v>-0.3696569397683404</v>
       </c>
     </row>
     <row r="65">
@@ -1928,13 +1928,13 @@
         <v>-0.5084449836926278</v>
       </c>
       <c r="E65" t="n">
-        <v>-1.371138966476799</v>
+        <v>-1.36429572107471</v>
       </c>
       <c r="F65" t="n">
-        <v>-1.864457825360894</v>
+        <v>-1.840702842921809</v>
       </c>
       <c r="G65" t="n">
-        <v>-0.3567924560393439</v>
+        <v>-0.3656067663641597</v>
       </c>
     </row>
     <row r="66">
@@ -1951,13 +1951,13 @@
         <v>-0.5191665902451467</v>
       </c>
       <c r="E66" t="n">
-        <v>-1.397135122735428</v>
+        <v>-1.38912091876443</v>
       </c>
       <c r="F66" t="n">
-        <v>-1.97727866144159</v>
+        <v>-1.956110884219596</v>
       </c>
       <c r="G66" t="n">
-        <v>-0.3871848170996993</v>
+        <v>-0.3953537861683335</v>
       </c>
     </row>
     <row r="67">
@@ -1974,13 +1974,13 @@
         <v>-0.5283964181638987</v>
       </c>
       <c r="E67" t="n">
-        <v>-1.439329052514599</v>
+        <v>-1.428381611928965</v>
       </c>
       <c r="F67" t="n">
-        <v>-2.051265138400298</v>
+        <v>-2.026320946791168</v>
       </c>
       <c r="G67" t="n">
-        <v>-0.3589343465887069</v>
+        <v>-0.3688933346167952</v>
       </c>
     </row>
     <row r="68">
@@ -1997,13 +1997,13 @@
         <v>-0.5355903409554872</v>
       </c>
       <c r="E68" t="n">
-        <v>-1.468017537452864</v>
+        <v>-1.455738533008321</v>
       </c>
       <c r="F68" t="n">
-        <v>-2.165256203025858</v>
+        <v>-2.14170416727141</v>
       </c>
       <c r="G68" t="n">
-        <v>-0.4257534474691435</v>
+        <v>-0.4381127545586856</v>
       </c>
     </row>
     <row r="69">
@@ -2020,13 +2020,13 @@
         <v>-0.5404367681311838</v>
       </c>
       <c r="E69" t="n">
-        <v>-1.463911882221228</v>
+        <v>-1.450050185646141</v>
       </c>
       <c r="F69" t="n">
-        <v>-2.314094235437136</v>
+        <v>-2.28967785121287</v>
       </c>
       <c r="G69" t="n">
-        <v>-0.4456451426596836</v>
+        <v>-0.4591856286547709</v>
       </c>
     </row>
     <row r="70">
@@ -2043,13 +2043,13 @@
         <v>-0.5431542223783247</v>
       </c>
       <c r="E70" t="n">
-        <v>-1.487712126151131</v>
+        <v>-1.477975065432861</v>
       </c>
       <c r="F70" t="n">
-        <v>-2.439808756208648</v>
+        <v>-2.420539771528881</v>
       </c>
       <c r="G70" t="n">
-        <v>-0.4599711345276798</v>
+        <v>-0.4740094969217669</v>
       </c>
     </row>
     <row r="71">
@@ -2066,13 +2066,13 @@
         <v>-0.5440295855687619</v>
       </c>
       <c r="E71" t="n">
-        <v>-1.526228194789303</v>
+        <v>-1.515863313391942</v>
       </c>
       <c r="F71" t="n">
-        <v>-2.606836067736467</v>
+        <v>-2.594548303003379</v>
       </c>
       <c r="G71" t="n">
-        <v>-0.5207354159751181</v>
+        <v>-0.5332757690279328</v>
       </c>
     </row>
     <row r="72">
@@ -2089,13 +2089,13 @@
         <v>-0.5432559845561327</v>
       </c>
       <c r="E72" t="n">
-        <v>-1.533134222259301</v>
+        <v>-1.525093737422667</v>
       </c>
       <c r="F72" t="n">
-        <v>-2.704447582854168</v>
+        <v>-2.693162141135489</v>
       </c>
       <c r="G72" t="n">
-        <v>-0.5397248014454765</v>
+        <v>-0.5522125927670186</v>
       </c>
     </row>
     <row r="73">
@@ -2112,13 +2112,13 @@
         <v>-0.5395339536699222</v>
       </c>
       <c r="E73" t="n">
-        <v>-1.517835838362759</v>
+        <v>-1.509455162320943</v>
       </c>
       <c r="F73" t="n">
-        <v>-2.827575628432635</v>
+        <v>-2.820541116730637</v>
       </c>
       <c r="G73" t="n">
-        <v>-0.5485376517222015</v>
+        <v>-0.5671445045927419</v>
       </c>
     </row>
     <row r="74">
@@ -2135,13 +2135,13 @@
         <v>-0.5324759527111869</v>
       </c>
       <c r="E74" t="n">
-        <v>-1.572822709514472</v>
+        <v>-1.565591091320201</v>
       </c>
       <c r="F74" t="n">
-        <v>-2.964501128470189</v>
+        <v>-2.961396336204872</v>
       </c>
       <c r="G74" t="n">
-        <v>-0.559660298078744</v>
+        <v>-0.5787942283101024</v>
       </c>
     </row>
     <row r="75">
@@ -2158,13 +2158,13 @@
         <v>-0.521217099480984</v>
       </c>
       <c r="E75" t="n">
-        <v>-1.449296800831232</v>
+        <v>-1.444462581602234</v>
       </c>
       <c r="F75" t="n">
-        <v>-3.026649535507809</v>
+        <v>-3.027842394798081</v>
       </c>
       <c r="G75" t="n">
-        <v>-0.5948781180795527</v>
+        <v>-0.614350779468002</v>
       </c>
     </row>
     <row r="76">
@@ -2181,13 +2181,13 @@
         <v>-0.5053714539873897</v>
       </c>
       <c r="E76" t="n">
-        <v>-1.344640553674897</v>
+        <v>-1.340305670892989</v>
       </c>
       <c r="F76" t="n">
-        <v>-3.087609463399429</v>
+        <v>-3.092518875105109</v>
       </c>
       <c r="G76" t="n">
-        <v>-0.5864156793446459</v>
+        <v>-0.6044268325940956</v>
       </c>
     </row>
     <row r="77">
@@ -2204,13 +2204,13 @@
         <v>-0.4842279909164293</v>
       </c>
       <c r="E77" t="n">
-        <v>-1.233567395159018</v>
+        <v>-1.230237025463655</v>
       </c>
       <c r="F77" t="n">
-        <v>-3.16401231994859</v>
+        <v>-3.172635363973497</v>
       </c>
       <c r="G77" t="n">
-        <v>-0.559674898559653</v>
+        <v>-0.5814223148737381</v>
       </c>
     </row>
     <row r="78">
@@ -2227,13 +2227,13 @@
         <v>-0.4578003701249654</v>
       </c>
       <c r="E78" t="n">
-        <v>-1.097414990585599</v>
+        <v>-1.098342121123327</v>
       </c>
       <c r="F78" t="n">
-        <v>-3.225207315582846</v>
+        <v>-3.235518905224889</v>
       </c>
       <c r="G78" t="n">
-        <v>-0.5702179058241047</v>
+        <v>-0.594105752639462</v>
       </c>
     </row>
     <row r="79">
@@ -2250,13 +2250,13 @@
         <v>-0.4264873648903056</v>
       </c>
       <c r="E79" t="n">
-        <v>-0.8973066394380169</v>
+        <v>-0.8974497241509259</v>
       </c>
       <c r="F79" t="n">
-        <v>-3.291533650232601</v>
+        <v>-3.302440209471689</v>
       </c>
       <c r="G79" t="n">
-        <v>-0.5698120124548322</v>
+        <v>-0.5908819664547356</v>
       </c>
     </row>
     <row r="80">
@@ -2273,13 +2273,13 @@
         <v>-0.3907966345029686</v>
       </c>
       <c r="E80" t="n">
-        <v>-0.6845878529292558</v>
+        <v>-0.6902878806761634</v>
       </c>
       <c r="F80" t="n">
-        <v>-3.329943865384182</v>
+        <v>-3.347050518841314</v>
       </c>
       <c r="G80" t="n">
-        <v>-0.5322566554604786</v>
+        <v>-0.5567562624259266</v>
       </c>
     </row>
     <row r="81">
@@ -2296,13 +2296,13 @@
         <v>-0.3516414038562372</v>
       </c>
       <c r="E81" t="n">
-        <v>-0.4330171867214143</v>
+        <v>-0.4353664040996864</v>
       </c>
       <c r="F81" t="n">
-        <v>-3.376393835348351</v>
+        <v>-3.397453569011618</v>
       </c>
       <c r="G81" t="n">
-        <v>-0.4942311629808524</v>
+        <v>-0.5177320970521189</v>
       </c>
     </row>
     <row r="82">
@@ -2319,13 +2319,13 @@
         <v>-0.3092966251205308</v>
       </c>
       <c r="E82" t="n">
-        <v>-0.1630426143276686</v>
+        <v>-0.1763188316183014</v>
       </c>
       <c r="F82" t="n">
-        <v>-3.319989987524412</v>
+        <v>-3.346141638904723</v>
       </c>
       <c r="G82" t="n">
-        <v>-0.4566860263231352</v>
+        <v>-0.4749234870266758</v>
       </c>
     </row>
     <row r="83">
@@ -2342,13 +2342,13 @@
         <v>-0.2643290119579274</v>
       </c>
       <c r="E83" t="n">
-        <v>0.1229866468737091</v>
+        <v>0.1158528519015292</v>
       </c>
       <c r="F83" t="n">
-        <v>-3.313995760087186</v>
+        <v>-3.345483157215723</v>
       </c>
       <c r="G83" t="n">
-        <v>-0.4378265851328675</v>
+        <v>-0.4558245979494991</v>
       </c>
     </row>
     <row r="84">
@@ -2365,13 +2365,13 @@
         <v>-0.2168407965166413</v>
       </c>
       <c r="E84" t="n">
-        <v>0.4481627174885309</v>
+        <v>0.4405675473196238</v>
       </c>
       <c r="F84" t="n">
-        <v>-3.26560684625829</v>
+        <v>-3.292927266135373</v>
       </c>
       <c r="G84" t="n">
-        <v>-0.3903063999180622</v>
+        <v>-0.4088387903359663</v>
       </c>
     </row>
     <row r="85">
@@ -2388,13 +2388,13 @@
         <v>-0.1680173377146637</v>
       </c>
       <c r="E85" t="n">
-        <v>0.7278641302639103</v>
+        <v>0.7250593778812747</v>
       </c>
       <c r="F85" t="n">
-        <v>-3.17897854290445</v>
+        <v>-3.217028856201621</v>
       </c>
       <c r="G85" t="n">
-        <v>-0.3478876227328917</v>
+        <v>-0.3665630978637049</v>
       </c>
     </row>
     <row r="86">
@@ -2411,13 +2411,13 @@
         <v>-0.1185698617670891</v>
       </c>
       <c r="E86" t="n">
-        <v>0.9869920053902953</v>
+        <v>0.9826425221274783</v>
       </c>
       <c r="F86" t="n">
-        <v>-3.092202774693428</v>
+        <v>-3.135607814364007</v>
       </c>
       <c r="G86" t="n">
-        <v>-0.2716599719546395</v>
+        <v>-0.2894871591446347</v>
       </c>
     </row>
     <row r="87">
@@ -2434,13 +2434,13 @@
         <v>-0.06886970909156033</v>
       </c>
       <c r="E87" t="n">
-        <v>1.177250872116608</v>
+        <v>1.172628359860791</v>
       </c>
       <c r="F87" t="n">
-        <v>-2.973572407259005</v>
+        <v>-3.022946853549264</v>
       </c>
       <c r="G87" t="n">
-        <v>-0.2363676895011944</v>
+        <v>-0.2548402179473713</v>
       </c>
     </row>
     <row r="88">
@@ -2457,13 +2457,13 @@
         <v>-0.01985470443321459</v>
       </c>
       <c r="E88" t="n">
-        <v>1.342950269905745</v>
+        <v>1.343004291685109</v>
       </c>
       <c r="F88" t="n">
-        <v>-2.737703098220795</v>
+        <v>-2.792226404103645</v>
       </c>
       <c r="G88" t="n">
-        <v>-0.2343338425105586</v>
+        <v>-0.2529450755253718</v>
       </c>
     </row>
     <row r="89">
@@ -2480,13 +2480,13 @@
         <v>0.02694067784954779</v>
       </c>
       <c r="E89" t="n">
-        <v>1.48414276048898</v>
+        <v>1.482463705184435</v>
       </c>
       <c r="F89" t="n">
-        <v>-2.502648496017313</v>
+        <v>-2.55666954535689</v>
       </c>
       <c r="G89" t="n">
-        <v>-0.162077522539578</v>
+        <v>-0.1808289201711184</v>
       </c>
     </row>
     <row r="90">
@@ -2503,13 +2503,13 @@
         <v>0.06878070711649241</v>
       </c>
       <c r="E90" t="n">
-        <v>1.605091684291766</v>
+        <v>1.611178624782764</v>
       </c>
       <c r="F90" t="n">
-        <v>-2.220617576512889</v>
+        <v>-2.271722179790875</v>
       </c>
       <c r="G90" t="n">
-        <v>-0.1584799640435789</v>
+        <v>-0.1702450315601212</v>
       </c>
     </row>
     <row r="91">
@@ -2526,13 +2526,13 @@
         <v>0.1030301771482942</v>
       </c>
       <c r="E91" t="n">
-        <v>1.649271279474572</v>
+        <v>1.650983915885208</v>
       </c>
       <c r="F91" t="n">
-        <v>-1.932262458702694</v>
+        <v>-1.981908473937862</v>
       </c>
       <c r="G91" t="n">
-        <v>-0.09015993372568819</v>
+        <v>-0.09990429468441285</v>
       </c>
     </row>
     <row r="92">
@@ -2549,13 +2549,13 @@
         <v>0.1271224460980255</v>
       </c>
       <c r="E92" t="n">
-        <v>1.617335647582126</v>
+        <v>1.614650619142945</v>
       </c>
       <c r="F92" t="n">
-        <v>-1.573497251732472</v>
+        <v>-1.616840239359187</v>
       </c>
       <c r="G92" t="n">
-        <v>-0.1027426281731394</v>
+        <v>-0.1112488683507734</v>
       </c>
     </row>
     <row r="93">
@@ -2572,13 +2572,13 @@
         <v>0.1401259164581732</v>
       </c>
       <c r="E93" t="n">
-        <v>1.648405470956663</v>
+        <v>1.644856094047664</v>
       </c>
       <c r="F93" t="n">
-        <v>-1.234717913054654</v>
+        <v>-1.273635494917825</v>
       </c>
       <c r="G93" t="n">
-        <v>-0.1310544207039499</v>
+        <v>-0.1403476268025838</v>
       </c>
     </row>
     <row r="94">
@@ -2595,13 +2595,13 @@
         <v>0.1420577303301328</v>
       </c>
       <c r="E94" t="n">
-        <v>1.601845997385676</v>
+        <v>1.59232502378486</v>
       </c>
       <c r="F94" t="n">
-        <v>-0.9859855803355385</v>
+        <v>-1.014738307389804</v>
       </c>
       <c r="G94" t="n">
-        <v>-0.1351980371859488</v>
+        <v>-0.1436268948147647</v>
       </c>
     </row>
     <row r="95">
@@ -2618,13 +2618,13 @@
         <v>0.1341213643268366</v>
       </c>
       <c r="E95" t="n">
-        <v>1.595823299010677</v>
+        <v>1.58493426034868</v>
       </c>
       <c r="F95" t="n">
-        <v>-0.6874291065141642</v>
+        <v>-0.7095240142738856</v>
       </c>
       <c r="G95" t="n">
-        <v>-0.1929327188447515</v>
+        <v>-0.2013294554155674</v>
       </c>
     </row>
     <row r="96">
@@ -2641,13 +2641,13 @@
         <v>0.1188491776188921</v>
       </c>
       <c r="E96" t="n">
-        <v>1.500565381415521</v>
+        <v>1.483228770384071</v>
       </c>
       <c r="F96" t="n">
-        <v>-0.4078006961433302</v>
+        <v>-0.4196825675071452</v>
       </c>
       <c r="G96" t="n">
-        <v>-0.2194048507810171</v>
+        <v>-0.2255604135322882</v>
       </c>
     </row>
     <row r="97">
@@ -2664,13 +2664,13 @@
         <v>0.09917961365779936</v>
       </c>
       <c r="E97" t="n">
-        <v>1.382222643455007</v>
+        <v>1.361698747441104</v>
       </c>
       <c r="F97" t="n">
-        <v>-0.2026843800439307</v>
+        <v>-0.2070718245571113</v>
       </c>
       <c r="G97" t="n">
-        <v>-0.3241048993800799</v>
+        <v>-0.3318489944542596</v>
       </c>
     </row>
     <row r="98">
@@ -2687,13 +2687,13 @@
         <v>0.07568314286217812</v>
       </c>
       <c r="E98" t="n">
-        <v>1.309393984632391</v>
+        <v>1.290667407818396</v>
       </c>
       <c r="F98" t="n">
-        <v>-0.04066138334770149</v>
+        <v>-0.04169801749224666</v>
       </c>
       <c r="G98" t="n">
-        <v>-0.3252831581894433</v>
+        <v>-0.3387389613952578</v>
       </c>
     </row>
     <row r="99">
@@ -2710,13 +2710,13 @@
         <v>0.05036046481347431</v>
       </c>
       <c r="E99" t="n">
-        <v>1.161047258403703</v>
+        <v>1.13644252797571</v>
       </c>
       <c r="F99" t="n">
-        <v>0.0764067326294489</v>
+        <v>0.07826391380108476</v>
       </c>
       <c r="G99" t="n">
-        <v>-0.3380264579268943</v>
+        <v>-0.3509084622329818</v>
       </c>
     </row>
     <row r="100">
@@ -2733,13 +2733,13 @@
         <v>0.02076407747772093</v>
       </c>
       <c r="E100" t="n">
-        <v>0.9986694700213831</v>
+        <v>0.9686961427631184</v>
       </c>
       <c r="F100" t="n">
-        <v>0.1701520404024237</v>
+        <v>0.1773617578753309</v>
       </c>
       <c r="G100" t="n">
-        <v>-0.3767308727687931</v>
+        <v>-0.389748661547335</v>
       </c>
     </row>
     <row r="101">
@@ -2756,13 +2756,13 @@
         <v>-0.01030115129989814</v>
       </c>
       <c r="E101" t="n">
-        <v>0.8379575965107898</v>
+        <v>0.8000868691288</v>
       </c>
       <c r="F101" t="n">
-        <v>0.2199674212161376</v>
+        <v>0.2260718822842269</v>
       </c>
       <c r="G101" t="n">
-        <v>-0.3399931427053484</v>
+        <v>-0.3554900931422533</v>
       </c>
     </row>
     <row r="102">
@@ -2779,13 +2779,13 @@
         <v>-0.05002104359124389</v>
       </c>
       <c r="E102" t="n">
-        <v>0.7348066589361812</v>
+        <v>0.6984952629152819</v>
       </c>
       <c r="F102" t="n">
-        <v>0.2388575234163144</v>
+        <v>0.2438538079834039</v>
       </c>
       <c r="G102" t="n">
-        <v>-0.3559704489641623</v>
+        <v>-0.3699401890979767</v>
       </c>
     </row>
   </sheetData>
